--- a/www/ig/fhir/mesures/StructureDefinition-mesures-fr-observation-bmi.xlsx
+++ b/www/ig/fhir/mesures/StructureDefinition-mesures-fr-observation-bmi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-26T10:14:44+02:00</t>
+    <t>2023-04-26T16:40:33+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/www/ig/fhir/mesures/StructureDefinition-mesures-fr-observation-bmi.xlsx
+++ b/www/ig/fhir/mesures/StructureDefinition-mesures-fr-observation-bmi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-26T16:40:33+02:00</t>
+    <t>2023-04-26T19:41:02+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
